--- a/full_data_tests_results_bsize500.xlsx
+++ b/full_data_tests_results_bsize500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\COMP551_neuro-gang\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\Exploring_papers\COMP551_reproductibility_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75590B63-2A21-4E80-B05E-EDB22C05FDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88751B-0345-4FE3-A947-C455547A17B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -643,21 +643,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Ablation</a:t>
+              <a:t>Ablation tests for batch size of 500</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> tests for b</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>atch size</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> of 500</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -674,7 +661,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1661,7 +1648,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1693,7 +1680,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1731,7 +1718,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1778,7 +1765,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1810,7 +1797,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1848,7 +1835,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1890,7 +1877,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1922,12 +1909,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1937,7 +1919,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1967,7 +1949,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1981,21 +1963,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Ablation</a:t>
+              <a:t>Ablation tests for batch size of 500 </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> tests for b</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>atch size</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> of 500 </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2012,7 +1981,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2999,7 +2968,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3031,7 +3000,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3069,7 +3038,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3116,7 +3085,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3130,13 +3099,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Run</a:t>
+                  <a:t>Run Time (Seconds)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Time (Seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3153,7 +3117,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3191,7 +3155,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3233,7 +3197,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3265,12 +3229,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3280,7 +3239,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4459,7 +4418,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673171" cy="6295793"/>
+    <xdr:ext cx="8664503" cy="6288665"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">

--- a/full_data_tests_results_bsize500.xlsx
+++ b/full_data_tests_results_bsize500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\Exploring_papers\COMP551_reproductibility_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88751B-0345-4FE3-A947-C455547A17B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FE3CAB-62F0-435E-9B45-92C36373E472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5490" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy vs. Dimension Graph" sheetId="2" r:id="rId1"/>
@@ -1940,7 +1940,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4374,7 +4373,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4418,7 +4417,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664503" cy="6288665"/>
+    <xdr:ext cx="8673171" cy="6295793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4742,298 +4741,12 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
